--- a/xlsx/dmitrovka.xlsx
+++ b/xlsx/dmitrovka.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I404"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4200000</v>
+        <v>2455000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4200000</v>
+        <v>2455000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1490000</v>
+        <v>1390000</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1490000</v>
+        <v>1390000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1690000</v>
+        <v>1440000</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1690000</v>
+        <v>1440000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -979,15 +979,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2030000</v>
+        <v>1790000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/baic/x75</t>
+          <t>https://fili-auto.ru/cars/baic/x75/</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2195000</v>
+        <v>1790000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1713000</v>
+        <v>1499000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1713000</v>
+        <v>1499000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1040000</v>
+        <v>1119900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1040000</v>
+        <v>1119900</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2054000</v>
+        <v>1899000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2054000</v>
+        <v>1899000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -5292,15 +5292,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2205990</v>
+        <v>1990000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/geely/preface</t>
+          <t>https://fili-auto.ru/cars/geely/preface/</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2599000</v>
+        <v>1990000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -10605,15 +10605,15 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1528000</v>
+        <v>1843000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/mazda/6/</t>
+          <t>https://plusauto.moscow/catalog/mazda/6-sedan</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>1528000</v>
+        <v>2490000</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -10683,30 +10683,30 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>CX-50</t>
+          <t>CX-5 New</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>2490000</v>
+        <v>2690000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/mazda/cx-50/</t>
+          <t>https://fili-auto.ru/cars/mazda/cx-5_new/</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>2490000</v>
+        <v>2690000</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/mazda/cx-50/</t>
+          <t>https://fili-auto.ru/cars/mazda/cx-5_new/</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -10716,71 +10716,71 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>CX-50</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>2973000</v>
+        <v>2490000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/mazda/cx-9/</t>
+          <t>https://fili-auto.ru/cars/mazda/cx-50/</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>2973000</v>
+        <v>2490000</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/mazda/cx-9/</t>
-        </is>
-      </c>
-      <c r="H285" t="n">
-        <v>3675000</v>
-      </c>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>https://plusauto.moscow/catalog/mazda/cx-9</t>
+          <t>https://fili-auto.ru/cars/mazda/cx-50/</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1954000</v>
+        <v>2973000</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/mitsubishi/asx</t>
+          <t>https://fili-auto.ru/cars/mazda/cx-9/</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>2973000</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
       <c r="H286" t="n">
-        <v>1954000</v>
+        <v>3675000</v>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/mitsubishi/asx</t>
+          <t>https://plusauto.moscow/catalog/mazda/cx-9</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -10790,30 +10790,30 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Eclipse Cross</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>2814000</v>
+        <v>1954000</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/mitsubishi/eclipse-cross</t>
+          <t>https://plusauto.moscow/catalog/mitsubishi/asx</t>
         </is>
       </c>
       <c r="H287" t="n">
-        <v>2814000</v>
+        <v>1954000</v>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/mitsubishi/eclipse-cross</t>
+          <t>https://plusauto.moscow/catalog/mitsubishi/asx</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -10823,30 +10823,30 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>L200 New</t>
+          <t>Eclipse Cross</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>3309000</v>
+        <v>2814000</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/mitsubishi/l200</t>
+          <t>https://plusauto.moscow/catalog/mitsubishi/eclipse-cross</t>
         </is>
       </c>
       <c r="H288" t="n">
-        <v>3309000</v>
+        <v>2814000</v>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/mitsubishi/l200</t>
+          <t>https://plusauto.moscow/catalog/mitsubishi/eclipse-cross</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -10856,30 +10856,30 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>L200 New</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1974000</v>
+        <v>3309000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/mitsubishi/outlander</t>
+          <t>https://plusauto.moscow/catalog/mitsubishi/l200</t>
         </is>
       </c>
       <c r="H289" t="n">
-        <v>1974000</v>
+        <v>3309000</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/mitsubishi/outlander</t>
+          <t>https://plusauto.moscow/catalog/mitsubishi/l200</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -10889,71 +10889,63 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Pajero Sport</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>3544000</v>
+        <v>1974000</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/mitsubishi/pajero-sport-old</t>
+          <t>https://plusauto.moscow/catalog/mitsubishi/outlander</t>
         </is>
       </c>
       <c r="H290" t="n">
-        <v>3544000</v>
+        <v>1974000</v>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/mitsubishi/pajero-sport-old</t>
+          <t>https://plusauto.moscow/catalog/mitsubishi/outlander</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Pajero Sport</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1299000</v>
+        <v>3544000</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="F291" t="n">
-        <v>1299000</v>
-      </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/moskvich/3/</t>
+          <t>https://plusauto.moscow/catalog/mitsubishi/pajero-sport-old</t>
         </is>
       </c>
       <c r="H291" t="n">
-        <v>1305000</v>
+        <v>3544000</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/moskvich/3</t>
+          <t>https://plusauto.moscow/catalog/mitsubishi/pajero-sport-old</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -10963,30 +10955,38 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2330000</v>
+        <v>1299000</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/moskvich/3e</t>
+          <t>https://fili-auto.ru/cars/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>1299000</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/moskvich/3/</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>2330000</v>
+        <v>1305000</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/moskvich/3e</t>
+          <t>https://plusauto.moscow/catalog/moskvich/3</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -10996,79 +10996,71 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>1627000</v>
+        <v>2330000</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/moskvich/6</t>
-        </is>
-      </c>
-      <c r="F293" t="n">
-        <v>1899000</v>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/moskvich/6/</t>
+          <t>https://plusauto.moscow/catalog/moskvich/3e</t>
         </is>
       </c>
       <c r="H293" t="n">
-        <v>1627000</v>
+        <v>2330000</v>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/moskvich/6</t>
+          <t>https://plusauto.moscow/catalog/moskvich/3e</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>2590000</v>
+        <v>1627000</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/nissan/murano/</t>
+          <t>https://plusauto.moscow/catalog/moskvich/6</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>2590000</v>
+        <v>1899000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/nissan/murano/</t>
+          <t>https://fili-auto.ru/cars/moskvich/6/</t>
         </is>
       </c>
       <c r="H294" t="n">
-        <v>3519000</v>
+        <v>1627000</v>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/nissan/murano</t>
+          <t>https://plusauto.moscow/catalog/moskvich/6</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -11078,30 +11070,38 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Pathfinder</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>4755000</v>
+        <v>2590000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/nissan/pathfinder</t>
+          <t>https://fili-auto.ru/cars/nissan/murano/</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>2590000</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/nissan/murano/</t>
         </is>
       </c>
       <c r="H295" t="n">
-        <v>4755000</v>
+        <v>3519000</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/nissan/pathfinder</t>
+          <t>https://plusauto.moscow/catalog/nissan/murano</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -11111,38 +11111,30 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Pathfinder</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>790000</v>
+        <v>4755000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/nissan/qashqai_new/</t>
-        </is>
-      </c>
-      <c r="F296" t="n">
-        <v>790000</v>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/nissan/qashqai_new/</t>
+          <t>https://plusauto.moscow/catalog/nissan/pathfinder</t>
         </is>
       </c>
       <c r="H296" t="n">
-        <v>1652000</v>
+        <v>4755000</v>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/nissan/qashqai</t>
+          <t>https://plusauto.moscow/catalog/nissan/pathfinder</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -11152,38 +11144,38 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>890000</v>
+        <v>790000</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/nissan/terrano/</t>
+          <t>https://fili-auto.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>890000</v>
+        <v>790000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/nissan/terrano/</t>
+          <t>https://fili-auto.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>1070000</v>
+        <v>1652000</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/nissan/terrano</t>
+          <t>https://plusauto.moscow/catalog/nissan/qashqai</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -11193,30 +11185,38 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2032000</v>
+        <v>890000</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/nissan/x-trail</t>
+          <t>https://fili-auto.ru/cars/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>890000</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/nissan/terrano/</t>
         </is>
       </c>
       <c r="H298" t="n">
-        <v>2032000</v>
+        <v>1070000</v>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/nissan/x-trail</t>
+          <t>https://plusauto.moscow/catalog/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -11226,71 +11226,63 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>855000</v>
+        <v>2032000</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/nissan/x_trail/</t>
-        </is>
-      </c>
-      <c r="F299" t="n">
-        <v>855000</v>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/nissan/x_trail/</t>
+          <t>https://plusauto.moscow/catalog/nissan/x-trail</t>
+        </is>
+      </c>
+      <c r="H299" t="n">
+        <v>2032000</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>https://plusauto.moscow/catalog/nissan/x-trail</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1199000</v>
+        <v>855000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/omoda/c5/</t>
+          <t>https://fili-auto.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>1199000</v>
+        <v>855000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/omoda/c5/</t>
-        </is>
-      </c>
-      <c r="H300" t="n">
-        <v>1499900</v>
-      </c>
-      <c r="I300" t="inlineStr">
-        <is>
-          <t>https://plusauto.moscow/catalog/omoda/c5</t>
+          <t>https://fili-auto.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -11300,30 +11292,38 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>C5 New</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1399000</v>
+        <v>1199000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/omoda/c5_new/</t>
+          <t>https://fili-auto.ru/cars/omoda/c5/</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>1399000</v>
+        <v>1199000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/omoda/c5_new/</t>
+          <t>https://fili-auto.ru/cars/omoda/c5/</t>
+        </is>
+      </c>
+      <c r="H301" t="n">
+        <v>1499900</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>https://plusauto.moscow/catalog/omoda/c5</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -11333,38 +11333,30 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1099000</v>
+        <v>1399000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/omoda/s5/</t>
+          <t>https://fili-auto.ru/cars/omoda/c5_new/</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>1099000</v>
+        <v>1399000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/omoda/s5/</t>
-        </is>
-      </c>
-      <c r="H302" t="n">
-        <v>1429000</v>
-      </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>https://plusauto.moscow/catalog/omoda/s5</t>
+          <t>https://fili-auto.ru/cars/omoda/c5_new/</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -11374,71 +11366,79 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>1699000</v>
+        <v>1099000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/omoda/s5_gt</t>
+          <t>https://fili-auto.ru/cars/omoda/s5/</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>1869900</v>
+        <v>1099000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/omoda/s5_gt/</t>
+          <t>https://fili-auto.ru/cars/omoda/s5/</t>
         </is>
       </c>
       <c r="H303" t="n">
-        <v>1699000</v>
+        <v>1429000</v>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/omoda/s5_gt</t>
+          <t>https://plusauto.moscow/catalog/omoda/s5</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Combo Cargo</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1454000</v>
+        <v>1699000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/opel/combo-cargo</t>
+          <t>https://plusauto.moscow/catalog/omoda/s5_gt</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>1869900</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
       <c r="H304" t="n">
-        <v>1454000</v>
+        <v>1699000</v>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/opel/combo-cargo</t>
+          <t>https://plusauto.moscow/catalog/omoda/s5_gt</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>982</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -11448,30 +11448,30 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Combo Life</t>
+          <t>Combo Cargo</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1524000</v>
+        <v>1454000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/opel/combo-life</t>
+          <t>https://plusauto.moscow/catalog/opel/combo-cargo</t>
         </is>
       </c>
       <c r="H305" t="n">
-        <v>1524000</v>
+        <v>1454000</v>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/opel/combo-life</t>
+          <t>https://plusauto.moscow/catalog/opel/combo-cargo</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -11481,30 +11481,30 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Crossland</t>
+          <t>Combo Life</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1339000</v>
+        <v>1524000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/opel/crossland</t>
+          <t>https://plusauto.moscow/catalog/opel/combo-life</t>
         </is>
       </c>
       <c r="H306" t="n">
-        <v>1339000</v>
+        <v>1524000</v>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/opel/crossland</t>
+          <t>https://plusauto.moscow/catalog/opel/combo-life</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -11514,30 +11514,30 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Grandland X</t>
+          <t>Crossland</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1494000</v>
+        <v>1339000</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/opel/grandlandx</t>
+          <t>https://plusauto.moscow/catalog/opel/crossland</t>
         </is>
       </c>
       <c r="H307" t="n">
-        <v>1494000</v>
+        <v>1339000</v>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/opel/grandlandx</t>
+          <t>https://plusauto.moscow/catalog/opel/crossland</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -11547,30 +11547,30 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Vivaro</t>
+          <t>Grandland X</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>2414900</v>
+        <v>1494000</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/opel/vivaro</t>
+          <t>https://plusauto.moscow/catalog/opel/grandlandx</t>
         </is>
       </c>
       <c r="H308" t="n">
-        <v>2414900</v>
+        <v>1494000</v>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/opel/vivaro</t>
+          <t>https://plusauto.moscow/catalog/opel/grandlandx</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>983</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -11580,63 +11580,63 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Zafira Life</t>
+          <t>Vivaro</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>3409900</v>
+        <v>2414900</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/opel/zafira-life</t>
+          <t>https://plusauto.moscow/catalog/opel/vivaro</t>
         </is>
       </c>
       <c r="H309" t="n">
-        <v>3409900</v>
+        <v>2414900</v>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/opel/zafira-life</t>
+          <t>https://plusauto.moscow/catalog/opel/vivaro</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ora</t>
+          <t>Opel</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>Zafira Life</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2849000</v>
+        <v>3409900</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/ora/03</t>
+          <t>https://plusauto.moscow/catalog/opel/zafira-life</t>
         </is>
       </c>
       <c r="H310" t="n">
-        <v>2849000</v>
+        <v>3409900</v>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/ora/03</t>
+          <t>https://plusauto.moscow/catalog/opel/zafira-life</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -11646,112 +11646,104 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>03 GT</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>3029000</v>
+        <v>2849000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/ora/03-gt</t>
+          <t>https://plusauto.moscow/catalog/ora/03</t>
         </is>
       </c>
       <c r="H311" t="n">
-        <v>3029000</v>
+        <v>2849000</v>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/ora/03-gt</t>
+          <t>https://plusauto.moscow/catalog/ora/03</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Ora</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>03 GT</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3119000</v>
+        <v>3029000</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/oting/paladin</t>
-        </is>
-      </c>
-      <c r="F312" t="n">
-        <v>3199000</v>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/oting/paladin/</t>
+          <t>https://plusauto.moscow/catalog/ora/03-gt</t>
         </is>
       </c>
       <c r="H312" t="n">
-        <v>3119000</v>
+        <v>3029000</v>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/oting/paladin</t>
+          <t>https://plusauto.moscow/catalog/ora/03-gt</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2008 New</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>2069000</v>
+        <v>3119000</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/peugeot/2008</t>
+          <t>https://plusauto.moscow/catalog/oting/paladin</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>2649000</v>
+        <v>3199000</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/peugeot/2008/</t>
+          <t>https://fili-auto.ru/cars/oting/paladin/</t>
         </is>
       </c>
       <c r="H313" t="n">
-        <v>2069000</v>
+        <v>3119000</v>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/peugeot/2008</t>
+          <t>https://plusauto.moscow/catalog/oting/paladin</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -11761,38 +11753,38 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>2008 New</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>2564000</v>
+        <v>2069000</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/peugeot/4008</t>
+          <t>https://plusauto.moscow/catalog/peugeot/2008</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>3299000</v>
+        <v>2649000</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/peugeot/4008/</t>
+          <t>https://fili-auto.ru/cars/peugeot/2008/</t>
         </is>
       </c>
       <c r="H314" t="n">
-        <v>2564000</v>
+        <v>2069000</v>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/peugeot/4008</t>
+          <t>https://plusauto.moscow/catalog/peugeot/2008</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -11802,30 +11794,38 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1484000</v>
+        <v>2564000</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/peugeot/408</t>
+          <t>https://plusauto.moscow/catalog/peugeot/4008</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>3299000</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/peugeot/4008/</t>
         </is>
       </c>
       <c r="H315" t="n">
-        <v>1484000</v>
+        <v>2564000</v>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/peugeot/408</t>
+          <t>https://plusauto.moscow/catalog/peugeot/4008</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -11835,38 +11835,30 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>5008 New</t>
+          <t>408</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>2819000</v>
+        <v>1484000</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/peugeot/5008</t>
-        </is>
-      </c>
-      <c r="F316" t="n">
-        <v>3499000</v>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/peugeot/5008/</t>
+          <t>https://plusauto.moscow/catalog/peugeot/408</t>
         </is>
       </c>
       <c r="H316" t="n">
-        <v>2819000</v>
+        <v>1484000</v>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/peugeot/5008</t>
+          <t>https://plusauto.moscow/catalog/peugeot/408</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -11876,30 +11868,38 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Partner Crossway</t>
+          <t>5008 New</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>1544000</v>
+        <v>2819000</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/peugeot/partner_crossway</t>
+          <t>https://plusauto.moscow/catalog/peugeot/5008</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>3499000</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/peugeot/5008/</t>
         </is>
       </c>
       <c r="H317" t="n">
-        <v>1544000</v>
+        <v>2819000</v>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/peugeot/partner_crossway</t>
+          <t>https://plusauto.moscow/catalog/peugeot/5008</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -11909,63 +11909,63 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Traveller</t>
+          <t>Partner Crossway</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>3139900</v>
+        <v>1544000</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/peugeot/traveller</t>
+          <t>https://plusauto.moscow/catalog/peugeot/partner_crossway</t>
         </is>
       </c>
       <c r="H318" t="n">
-        <v>3139900</v>
+        <v>1544000</v>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/peugeot/traveller</t>
+          <t>https://plusauto.moscow/catalog/peugeot/partner_crossway</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Gentra</t>
+          <t>Traveller</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>917000</v>
+        <v>3139900</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/ravon/gentra/</t>
-        </is>
-      </c>
-      <c r="F319" t="n">
-        <v>917000</v>
-      </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/ravon/gentra/</t>
+          <t>https://plusauto.moscow/catalog/peugeot/traveller</t>
+        </is>
+      </c>
+      <c r="H319" t="n">
+        <v>3139900</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>https://plusauto.moscow/catalog/peugeot/traveller</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -11975,38 +11975,30 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Gentra</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>515000</v>
+        <v>917000</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/ravon/nexia</t>
+          <t>https://fili-auto.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>805000</v>
+        <v>917000</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/ravon/nexia_r3/</t>
-        </is>
-      </c>
-      <c r="H320" t="n">
-        <v>515000</v>
-      </c>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>https://plusauto.moscow/catalog/ravon/nexia</t>
+          <t>https://fili-auto.ru/cars/ravon/gentra/</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -12016,38 +12008,38 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>573000</v>
+        <v>515000</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/ravon/r2</t>
+          <t>https://plusauto.moscow/catalog/ravon/nexia</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>1049000</v>
+        <v>805000</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/ravon/r2/</t>
+          <t>https://fili-auto.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H321" t="n">
-        <v>573000</v>
+        <v>515000</v>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/ravon/r2</t>
+          <t>https://plusauto.moscow/catalog/ravon/nexia</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -12057,79 +12049,79 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>541000</v>
+        <v>573000</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/ravon/r4</t>
+          <t>https://plusauto.moscow/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>831000</v>
+        <v>1049000</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/ravon/r4/</t>
+          <t>https://fili-auto.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="H322" t="n">
-        <v>541000</v>
+        <v>573000</v>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/ravon/r4</t>
+          <t>https://plusauto.moscow/catalog/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>890000</v>
+        <v>541000</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/renault/arkana/</t>
+          <t>https://plusauto.moscow/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>890000</v>
+        <v>831000</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/renault/arkana/</t>
+          <t>https://fili-auto.ru/cars/ravon/r4/</t>
         </is>
       </c>
       <c r="H323" t="n">
-        <v>1234000</v>
+        <v>541000</v>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/renault/arkana</t>
+          <t>https://plusauto.moscow/catalog/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -12139,38 +12131,38 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>650000</v>
+        <v>890000</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/renault/duster/</t>
+          <t>https://fili-auto.ru/cars/renault/arkana/</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>650000</v>
+        <v>890000</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/renault/duster/</t>
+          <t>https://fili-auto.ru/cars/renault/arkana/</t>
         </is>
       </c>
       <c r="H324" t="n">
-        <v>1008000</v>
+        <v>1234000</v>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/renault/duster</t>
+          <t>https://plusauto.moscow/catalog/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -12180,38 +12172,38 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>890000</v>
+        <v>650000</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/renault/kaptur/</t>
+          <t>https://fili-auto.ru/cars/renault/duster/</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>890000</v>
+        <v>650000</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/renault/kaptur/</t>
+          <t>https://fili-auto.ru/cars/renault/duster/</t>
         </is>
       </c>
       <c r="H325" t="n">
-        <v>1099000</v>
+        <v>1008000</v>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/renault/kaptur</t>
+          <t>https://plusauto.moscow/catalog/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -12221,38 +12213,38 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>559000</v>
+        <v>890000</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/renault/logan</t>
+          <t>https://fili-auto.ru/cars/renault/kaptur/</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>690000</v>
+        <v>890000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/renault/logan/</t>
+          <t>https://fili-auto.ru/cars/renault/kaptur/</t>
         </is>
       </c>
       <c r="H326" t="n">
-        <v>559000</v>
+        <v>1099000</v>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/renault/logan</t>
+          <t>https://plusauto.moscow/catalog/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -12262,38 +12254,38 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>721000</v>
+        <v>559000</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/renault/logan-stepway</t>
+          <t>https://plusauto.moscow/catalog/renault/logan</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>740000</v>
+        <v>690000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/renault/logan_stepway/</t>
+          <t>https://fili-auto.ru/cars/renault/logan/</t>
         </is>
       </c>
       <c r="H327" t="n">
-        <v>721000</v>
+        <v>559000</v>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/renault/logan-stepway</t>
+          <t>https://plusauto.moscow/catalog/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -12303,38 +12295,38 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>683000</v>
+        <v>721000</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/renault/sandero</t>
+          <t>https://plusauto.moscow/catalog/renault/logan-stepway</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>730000</v>
+        <v>740000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/renault/sandero/</t>
+          <t>https://fili-auto.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H328" t="n">
-        <v>683000</v>
+        <v>721000</v>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/renault/sandero</t>
+          <t>https://plusauto.moscow/catalog/renault/logan-stepway</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -12344,71 +12336,79 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>783000</v>
+        <v>683000</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/renault/sandero-stepway</t>
+          <t>https://plusauto.moscow/catalog/renault/sandero</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>790000</v>
+        <v>730000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/renault/sandero_stepway/</t>
+          <t>https://fili-auto.ru/cars/renault/sandero/</t>
         </is>
       </c>
       <c r="H329" t="n">
-        <v>783000</v>
+        <v>683000</v>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/renault/sandero-stepway</t>
+          <t>https://plusauto.moscow/catalog/renault/sandero</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Rising</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>6360000</v>
+        <v>783000</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/rising/f7</t>
+          <t>https://plusauto.moscow/catalog/renault/sandero-stepway</t>
+        </is>
+      </c>
+      <c r="F330" t="n">
+        <v>790000</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H330" t="n">
-        <v>6360000</v>
+        <v>783000</v>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/rising/f7</t>
+          <t>https://plusauto.moscow/catalog/renault/sandero-stepway</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>568</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -12418,104 +12418,96 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>R7</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>6990000</v>
+        <v>6360000</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/rising/r7</t>
+          <t>https://plusauto.moscow/catalog/rising/f7</t>
         </is>
       </c>
       <c r="H331" t="n">
-        <v>6990000</v>
+        <v>6360000</v>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/rising/r7</t>
+          <t>https://plusauto.moscow/catalog/rising/f7</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>Rising</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>R7</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>7949000</v>
+        <v>6990000</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/rox/01/</t>
-        </is>
-      </c>
-      <c r="F332" t="n">
-        <v>7949000</v>
-      </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/rox/01/</t>
+          <t>https://plusauto.moscow/catalog/rising/r7</t>
+        </is>
+      </c>
+      <c r="H332" t="n">
+        <v>6990000</v>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>https://plusauto.moscow/catalog/rising/r7</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>990000</v>
+        <v>6529000</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/swm/g01/</t>
+          <t>https://fili-auto.ru/cars/rox/01/</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>990000</v>
+        <v>6529000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/swm/g01/</t>
-        </is>
-      </c>
-      <c r="H333" t="n">
-        <v>1433000</v>
-      </c>
-      <c r="I333" t="inlineStr">
-        <is>
-          <t>https://plusauto.moscow/catalog/swm/g01</t>
+          <t>https://fili-auto.ru/cars/rox/01/</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -12525,38 +12517,38 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1119000</v>
+        <v>990000</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/swm/g01f/</t>
+          <t>https://fili-auto.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>1119000</v>
+        <v>990000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/swm/g01f/</t>
+          <t>https://fili-auto.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="H334" t="n">
-        <v>1323000</v>
+        <v>1433000</v>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/swm/g01f</t>
+          <t>https://plusauto.moscow/catalog/swm/g01</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -12566,79 +12558,79 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1234500</v>
+        <v>1119000</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/swm/g05-pro</t>
+          <t>https://fili-auto.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>1249000</v>
+        <v>1119000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/swm/g05_pro/</t>
+          <t>https://fili-auto.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="H335" t="n">
-        <v>1234500</v>
+        <v>1323000</v>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/swm/g05-pro</t>
+          <t>https://plusauto.moscow/catalog/swm/g01f</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1499000</v>
+        <v>1234500</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/skoda/karoq/</t>
+          <t>https://plusauto.moscow/catalog/swm/g05-pro</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>1499000</v>
+        <v>1249000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/skoda/karoq/</t>
+          <t>https://fili-auto.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="H336" t="n">
-        <v>1991000</v>
+        <v>1234500</v>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/skoda/karog</t>
+          <t>https://plusauto.moscow/catalog/swm/g05-pro</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -12648,38 +12640,38 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1899000</v>
+        <v>1499000</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/skoda/kodiaq/</t>
+          <t>https://fili-auto.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>1899000</v>
+        <v>1499000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/skoda/kodiaq/</t>
+          <t>https://fili-auto.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="H337" t="n">
-        <v>2825000</v>
+        <v>1991000</v>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/skoda/kodiaq</t>
+          <t>https://plusauto.moscow/catalog/skoda/karog</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -12689,15 +12681,15 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1898000</v>
+        <v>1899000</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/skoda/octavia</t>
+          <t>https://fili-auto.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F338" t="n">
@@ -12705,22 +12697,22 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/skoda/octavia/</t>
+          <t>https://fili-auto.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="H338" t="n">
-        <v>1898000</v>
+        <v>2825000</v>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/skoda/octavia</t>
+          <t>https://plusauto.moscow/catalog/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -12730,38 +12722,38 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>979000</v>
+        <v>1898000</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/skoda/rapid/</t>
+          <t>https://plusauto.moscow/catalog/skoda/octavia</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>979000</v>
+        <v>1899000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/skoda/rapid/</t>
+          <t>https://fili-auto.ru/cars/skoda/octavia/</t>
         </is>
       </c>
       <c r="H339" t="n">
-        <v>992000</v>
+        <v>1898000</v>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/skoda/rapid</t>
+          <t>https://plusauto.moscow/catalog/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -12771,38 +12763,38 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>2199000</v>
+        <v>979000</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/skoda/superb/</t>
+          <t>https://fili-auto.ru/cars/skoda/rapid/</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>2199000</v>
+        <v>979000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/skoda/superb/</t>
+          <t>https://fili-auto.ru/cars/skoda/rapid/</t>
         </is>
       </c>
       <c r="H340" t="n">
-        <v>2596000</v>
+        <v>992000</v>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/skoda/superb</t>
+          <t>https://plusauto.moscow/catalog/skoda/rapid</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -12812,63 +12804,71 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>2982000</v>
+        <v>2199000</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/skoda/superb-combi</t>
+          <t>https://fili-auto.ru/cars/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>2199000</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/skoda/superb/</t>
         </is>
       </c>
       <c r="H341" t="n">
-        <v>2982000</v>
+        <v>2596000</v>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/skoda/superb-combi</t>
+          <t>https://plusauto.moscow/catalog/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>3820000</v>
+        <v>2982000</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/skywell/et5</t>
+          <t>https://plusauto.moscow/catalog/skoda/superb-combi</t>
         </is>
       </c>
       <c r="H342" t="n">
-        <v>3820000</v>
+        <v>2982000</v>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/skywell/et5</t>
+          <t>https://plusauto.moscow/catalog/skoda/superb-combi</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -12878,71 +12878,63 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>HT-i</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>3705000</v>
+        <v>3820000</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/skywell/ht-i</t>
+          <t>https://plusauto.moscow/catalog/skywell/et5</t>
         </is>
       </c>
       <c r="H343" t="n">
-        <v>3705000</v>
+        <v>3820000</v>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/skywell/ht-i</t>
+          <t>https://plusauto.moscow/catalog/skywell/et5</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>HT-i</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1950000</v>
+        <v>3705000</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="F344" t="n">
-        <v>1950000</v>
-      </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/solaris/hc/</t>
+          <t>https://plusauto.moscow/catalog/skywell/ht-i</t>
         </is>
       </c>
       <c r="H344" t="n">
-        <v>2090000</v>
+        <v>3705000</v>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/solaris/hc</t>
+          <t>https://plusauto.moscow/catalog/skywell/ht-i</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -12952,38 +12944,38 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1220000</v>
+        <v>1950000</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/solaris/hs/</t>
+          <t>https://fili-auto.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>1220000</v>
+        <v>1950000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/solaris/hs/</t>
+          <t>https://fili-auto.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="H345" t="n">
-        <v>1520000</v>
+        <v>2090000</v>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/solaris/hs</t>
+          <t>https://plusauto.moscow/catalog/solaris/hc</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -12993,38 +12985,38 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1380000</v>
+        <v>1220000</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/solaris/krs/</t>
+          <t>https://fili-auto.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>1380000</v>
+        <v>1220000</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/solaris/krs/</t>
+          <t>https://fili-auto.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="H346" t="n">
-        <v>1670000</v>
+        <v>1520000</v>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/solaris/krs</t>
+          <t>https://plusauto.moscow/catalog/solaris/hs</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -13034,104 +13026,112 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1481000</v>
+        <v>1380000</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/solaris/krx/</t>
+          <t>https://fili-auto.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>1481000</v>
+        <v>1380000</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/solaris/krx/</t>
+          <t>https://fili-auto.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="H347" t="n">
-        <v>1771000</v>
+        <v>1670000</v>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/solaris/krx</t>
+          <t>https://plusauto.moscow/catalog/solaris/krs</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Sollers</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>ST6</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>2040000</v>
+        <v>1481000</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/sollers/st6</t>
+          <t>https://fili-auto.ru/cars/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F348" t="n">
+        <v>1481000</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/solaris/krx/</t>
         </is>
       </c>
       <c r="H348" t="n">
-        <v>2040000</v>
+        <v>1771000</v>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/sollers/st6</t>
+          <t>https://plusauto.moscow/catalog/solaris/krx</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>730</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Sollers</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>DX5</t>
+          <t>ST6</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1725000</v>
+        <v>2040000</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/soueast/dx5</t>
+          <t>https://plusauto.moscow/catalog/sollers/st6</t>
         </is>
       </c>
       <c r="H349" t="n">
-        <v>1725000</v>
+        <v>2040000</v>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/soueast/dx5</t>
+          <t>https://plusauto.moscow/catalog/sollers/st6</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -13141,30 +13141,30 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>DX8S</t>
+          <t>DX5</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1705000</v>
+        <v>1725000</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/soueast/dx8s</t>
+          <t>https://plusauto.moscow/catalog/soueast/dx5</t>
         </is>
       </c>
       <c r="H350" t="n">
-        <v>1705000</v>
+        <v>1725000</v>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/soueast/dx8s</t>
+          <t>https://plusauto.moscow/catalog/soueast/dx5</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -13174,38 +13174,30 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>S07</t>
+          <t>DX8S</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>2049000</v>
+        <v>1705000</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/soueast/s07/</t>
-        </is>
-      </c>
-      <c r="F351" t="n">
-        <v>2049000</v>
-      </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/soueast/s07/</t>
+          <t>https://plusauto.moscow/catalog/soueast/dx8s</t>
         </is>
       </c>
       <c r="H351" t="n">
-        <v>2749000</v>
+        <v>1705000</v>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/soueast/s07</t>
+          <t>https://plusauto.moscow/catalog/soueast/dx8s</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -13215,71 +13207,79 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>S09</t>
+          <t>S07</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2399000</v>
+        <v>2049000</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/soueast/s09/</t>
+          <t>https://fili-auto.ru/cars/soueast/s07/</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>2399000</v>
+        <v>2049000</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/soueast/s09/</t>
+          <t>https://fili-auto.ru/cars/soueast/s07/</t>
         </is>
       </c>
       <c r="H352" t="n">
-        <v>3549000</v>
+        <v>2749000</v>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/soueast/s09</t>
+          <t>https://plusauto.moscow/catalog/soueast/s07</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Jimny</t>
+          <t>S09</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1724000</v>
+        <v>2399000</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/suzuki/newjimny-fl</t>
+          <t>https://fili-auto.ru/cars/soueast/s09/</t>
+        </is>
+      </c>
+      <c r="F353" t="n">
+        <v>2399000</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/soueast/s09/</t>
         </is>
       </c>
       <c r="H353" t="n">
-        <v>1724000</v>
+        <v>3549000</v>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/suzuki/newjimny-fl</t>
+          <t>https://plusauto.moscow/catalog/soueast/s09</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -13289,30 +13289,30 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Jimny</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1414000</v>
+        <v>1724000</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/suzuki/sx-4</t>
+          <t>https://plusauto.moscow/catalog/suzuki/newjimny-fl</t>
         </is>
       </c>
       <c r="H354" t="n">
-        <v>1414000</v>
+        <v>1724000</v>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/suzuki/sx-4</t>
+          <t>https://plusauto.moscow/catalog/suzuki/newjimny-fl</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -13322,71 +13322,63 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>1574000</v>
+        <v>1414000</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/suzuki/new-vitara</t>
+          <t>https://plusauto.moscow/catalog/suzuki/sx-4</t>
         </is>
       </c>
       <c r="H355" t="n">
-        <v>1574000</v>
+        <v>1414000</v>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/suzuki/new-vitara</t>
+          <t>https://plusauto.moscow/catalog/suzuki/sx-4</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>2499000</v>
+        <v>1574000</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/tank/300/</t>
-        </is>
-      </c>
-      <c r="F356" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/tank/300/</t>
+          <t>https://plusauto.moscow/catalog/suzuki/new-vitara</t>
         </is>
       </c>
       <c r="H356" t="n">
-        <v>3444000</v>
+        <v>1574000</v>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/tank/300</t>
+          <t>https://plusauto.moscow/catalog/suzuki/new-vitara</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -13396,30 +13388,38 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>4909000</v>
+        <v>2499000</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/tank/400</t>
+          <t>https://fili-auto.ru/cars/tank/300/</t>
+        </is>
+      </c>
+      <c r="F357" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/tank/300/</t>
         </is>
       </c>
       <c r="H357" t="n">
-        <v>4909000</v>
+        <v>3444000</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/tank/400</t>
+          <t>https://plusauto.moscow/catalog/tank/300</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -13429,38 +13429,30 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>4899000</v>
+        <v>4909000</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/tank/500/</t>
-        </is>
-      </c>
-      <c r="F358" t="n">
-        <v>4899000</v>
-      </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/tank/500/</t>
+          <t>https://plusauto.moscow/catalog/tank/400</t>
         </is>
       </c>
       <c r="H358" t="n">
-        <v>5484000</v>
+        <v>4909000</v>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/tank/500</t>
+          <t>https://plusauto.moscow/catalog/tank/400</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -13470,63 +13462,71 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>8309000</v>
+        <v>4899000</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/tank/700</t>
+          <t>https://fili-auto.ru/cars/tank/500/</t>
+        </is>
+      </c>
+      <c r="F359" t="n">
+        <v>4899000</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/tank/500/</t>
         </is>
       </c>
       <c r="H359" t="n">
-        <v>8309000</v>
+        <v>5484000</v>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/tank/700</t>
+          <t>https://plusauto.moscow/catalog/tank/500</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Alphard</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>15975000</v>
+        <v>8309000</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/alphard</t>
+          <t>https://plusauto.moscow/catalog/tank/700</t>
         </is>
       </c>
       <c r="H360" t="n">
-        <v>15975000</v>
+        <v>8309000</v>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/alphard</t>
+          <t>https://plusauto.moscow/catalog/tank/700</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>616</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -13536,38 +13536,30 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>Alphard</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1865000</v>
+        <v>15975000</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/toyota/c-hr/</t>
-        </is>
-      </c>
-      <c r="F361" t="n">
-        <v>1865000</v>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/toyota/c-hr/</t>
+          <t>https://plusauto.moscow/catalog/toyota/alphard</t>
         </is>
       </c>
       <c r="H361" t="n">
-        <v>1916000</v>
+        <v>15975000</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/c-hr</t>
+          <t>https://plusauto.moscow/catalog/toyota/alphard</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -13577,38 +13569,38 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1798000</v>
+        <v>1865000</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/camry</t>
+          <t>https://fili-auto.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>2940000</v>
+        <v>1865000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/toyota/camry/</t>
+          <t>https://fili-auto.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
       <c r="H362" t="n">
-        <v>1798000</v>
+        <v>1916000</v>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/camry</t>
+          <t>https://plusauto.moscow/catalog/toyota/c-hr</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -13618,38 +13610,38 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1310000</v>
+        <v>1798000</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/corolla</t>
+          <t>https://plusauto.moscow/catalog/toyota/camry</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>1767000</v>
+        <v>2940000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/toyota/corolla/</t>
+          <t>https://fili-auto.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="H363" t="n">
-        <v>1310000</v>
+        <v>1798000</v>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/corolla</t>
+          <t>https://plusauto.moscow/catalog/toyota/camry</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -13659,30 +13651,38 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>2934000</v>
+        <v>1310000</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/fortuner</t>
+          <t>https://plusauto.moscow/catalog/toyota/corolla</t>
+        </is>
+      </c>
+      <c r="F364" t="n">
+        <v>1767000</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/toyota/corolla/</t>
         </is>
       </c>
       <c r="H364" t="n">
-        <v>2934000</v>
+        <v>1310000</v>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/fortuner</t>
+          <t>https://plusauto.moscow/catalog/toyota/corolla</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -13692,30 +13692,30 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Hiace</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>3582000</v>
+        <v>2934000</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/hiace</t>
+          <t>https://plusauto.moscow/catalog/toyota/fortuner</t>
         </is>
       </c>
       <c r="H365" t="n">
-        <v>3582000</v>
+        <v>2934000</v>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/hiace</t>
+          <t>https://plusauto.moscow/catalog/toyota/fortuner</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>888</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -13725,38 +13725,30 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Hiace</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>4284000</v>
+        <v>3582000</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/highlander</t>
-        </is>
-      </c>
-      <c r="F366" t="n">
-        <v>6190000</v>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/toyota/highlander/</t>
+          <t>https://plusauto.moscow/catalog/toyota/hiace</t>
         </is>
       </c>
       <c r="H366" t="n">
-        <v>4284000</v>
+        <v>3582000</v>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/highlander</t>
+          <t>https://plusauto.moscow/catalog/toyota/hiace</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -13766,30 +13758,38 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2826000</v>
+        <v>4284000</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/hilux</t>
+          <t>https://plusauto.moscow/catalog/toyota/highlander</t>
+        </is>
+      </c>
+      <c r="F367" t="n">
+        <v>6190000</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/toyota/highlander/</t>
         </is>
       </c>
       <c r="H367" t="n">
-        <v>2826000</v>
+        <v>4284000</v>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/hilux</t>
+          <t>https://plusauto.moscow/catalog/toyota/highlander</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -13799,38 +13799,30 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>8724000</v>
+        <v>2826000</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/toyota/land_cruiser_300/</t>
-        </is>
-      </c>
-      <c r="F368" t="n">
-        <v>8724000</v>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/toyota/land_cruiser_300/</t>
+          <t>https://plusauto.moscow/catalog/toyota/hilux</t>
         </is>
       </c>
       <c r="H368" t="n">
-        <v>11099000</v>
+        <v>2826000</v>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/land-cruiser-300</t>
+          <t>https://plusauto.moscow/catalog/toyota/hilux</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -13840,30 +13832,38 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Land Cruiser 300 GR-Sport</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>11456500</v>
+        <v>8724000</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://fili-auto.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>11456500</v>
+        <v>8724000</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://fili-auto.ru/cars/toyota/land_cruiser_300/</t>
+        </is>
+      </c>
+      <c r="H369" t="n">
+        <v>11099000</v>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>https://plusauto.moscow/catalog/toyota/land-cruiser-300</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -13873,38 +13873,30 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado New</t>
+          <t>Land Cruiser 300 GR-Sport</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>7690000</v>
+        <v>11456500</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/toyota/land_cruiser_250_prado/</t>
+          <t>https://fili-auto.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>7690000</v>
+        <v>11456500</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/toyota/land_cruiser_250_prado/</t>
-        </is>
-      </c>
-      <c r="H370" t="n">
-        <v>9783000</v>
-      </c>
-      <c r="I370" t="inlineStr">
-        <is>
-          <t>https://plusauto.moscow/catalog/toyota/land-cruiser-prado</t>
+          <t>https://fili-auto.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>741</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -13914,71 +13906,79 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Land Cruiser Prado New</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1956000</v>
+        <v>7690000</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/rav4</t>
+          <t>https://fili-auto.ru/cars/toyota/land_cruiser_250_prado/</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>2729000</v>
+        <v>7690000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/toyota/rav4/</t>
+          <t>https://fili-auto.ru/cars/toyota/land_cruiser_250_prado/</t>
         </is>
       </c>
       <c r="H371" t="n">
-        <v>1956000</v>
+        <v>9783000</v>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/toyota/rav4</t>
+          <t>https://plusauto.moscow/catalog/toyota/land-cruiser-prado</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>3909 Экспедиционный</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>1346000</v>
+        <v>1956000</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/uaz/sgr-expedition</t>
+          <t>https://plusauto.moscow/catalog/toyota/rav4</t>
+        </is>
+      </c>
+      <c r="F372" t="n">
+        <v>2729000</v>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/toyota/rav4/</t>
         </is>
       </c>
       <c r="H372" t="n">
-        <v>1346000</v>
+        <v>1956000</v>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/uaz/sgr-expedition</t>
+          <t>https://plusauto.moscow/catalog/toyota/rav4</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -13988,30 +13988,30 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>3909 Экспедиционный</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>1011000</v>
+        <v>1346000</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/uaz/hunter</t>
+          <t>https://plusauto.moscow/catalog/uaz/sgr-expedition</t>
         </is>
       </c>
       <c r="H373" t="n">
-        <v>1011000</v>
+        <v>1346000</v>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/uaz/hunter</t>
+          <t>https://plusauto.moscow/catalog/uaz/sgr-expedition</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -14021,30 +14021,30 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Hunter Экспедиционный</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>1281500</v>
+        <v>1011000</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/uaz/hunter_exp</t>
+          <t>https://plusauto.moscow/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="H374" t="n">
-        <v>1281500</v>
+        <v>1011000</v>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/uaz/hunter_exp</t>
+          <t>https://plusauto.moscow/catalog/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>985</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -14054,38 +14054,30 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter Экспедиционный</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1162000</v>
+        <v>1281500</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/uaz/patriot</t>
-        </is>
-      </c>
-      <c r="F375" t="n">
-        <v>1499000</v>
-      </c>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/uaz/patriot/</t>
+          <t>https://plusauto.moscow/catalog/uaz/hunter_exp</t>
         </is>
       </c>
       <c r="H375" t="n">
-        <v>1162000</v>
+        <v>1281500</v>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/uaz/patriot</t>
+          <t>https://plusauto.moscow/catalog/uaz/hunter_exp</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -14095,15 +14087,15 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>1499000</v>
+        <v>1162000</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/uaz/pikap/</t>
+          <t>https://plusauto.moscow/catalog/uaz/patriot</t>
         </is>
       </c>
       <c r="F376" t="n">
@@ -14111,14 +14103,22 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/uaz/pikap/</t>
+          <t>https://fili-auto.ru/cars/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="H376" t="n">
+        <v>1162000</v>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>https://plusauto.moscow/catalog/uaz/patriot</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -14128,63 +14128,63 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1199500</v>
+        <v>1499000</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/uaz/patriot-pickup</t>
-        </is>
-      </c>
-      <c r="H377" t="n">
-        <v>1199500</v>
-      </c>
-      <c r="I377" t="inlineStr">
-        <is>
-          <t>https://plusauto.moscow/catalog/uaz/patriot-pickup</t>
+          <t>https://fili-auto.ru/cars/uaz/pikap/</t>
+        </is>
+      </c>
+      <c r="F377" t="n">
+        <v>1499000</v>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/uaz/pikap/</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>VGV</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>U70 Pro</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1784900</v>
+        <v>1199500</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/vgv/u70-pro</t>
+          <t>https://plusauto.moscow/catalog/uaz/patriot-pickup</t>
         </is>
       </c>
       <c r="H378" t="n">
-        <v>1784900</v>
+        <v>1199500</v>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/vgv/u70-pro</t>
+          <t>https://plusauto.moscow/catalog/uaz/patriot-pickup</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>823</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -14194,63 +14194,63 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>U75 Plus</t>
+          <t>U70 Pro</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>2369900</v>
+        <v>1784900</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/vgv/u75-plus</t>
+          <t>https://plusauto.moscow/catalog/vgv/u70-pro</t>
         </is>
       </c>
       <c r="H379" t="n">
-        <v>2369900</v>
+        <v>1784900</v>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/vgv/u75-plus</t>
+          <t>https://plusauto.moscow/catalog/vgv/u70-pro</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>VGV</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Dream</t>
+          <t>U75 Plus</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>8760000</v>
+        <v>2369900</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/voyah/dream</t>
+          <t>https://plusauto.moscow/catalog/vgv/u75-plus</t>
         </is>
       </c>
       <c r="H380" t="n">
-        <v>8760000</v>
+        <v>2369900</v>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/voyah/dream</t>
+          <t>https://plusauto.moscow/catalog/vgv/u75-plus</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -14260,30 +14260,30 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Dream</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>3675000</v>
+        <v>8760000</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/voyah/free</t>
+          <t>https://plusauto.moscow/catalog/voyah/dream</t>
         </is>
       </c>
       <c r="H381" t="n">
-        <v>3675000</v>
+        <v>8760000</v>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/voyah/free</t>
+          <t>https://plusauto.moscow/catalog/voyah/dream</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -14293,30 +14293,30 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Free Sport Edition</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>4490000</v>
+        <v>3675000</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/voyah/free-sport-edition</t>
+          <t>https://plusauto.moscow/catalog/voyah/free</t>
         </is>
       </c>
       <c r="H382" t="n">
-        <v>4490000</v>
+        <v>3675000</v>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/voyah/free-sport-edition</t>
+          <t>https://plusauto.moscow/catalog/voyah/free</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>992</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -14326,63 +14326,63 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Passion</t>
+          <t>Free Sport Edition</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>7140000</v>
+        <v>4490000</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/voyah/passion</t>
+          <t>https://plusauto.moscow/catalog/voyah/free-sport-edition</t>
         </is>
       </c>
       <c r="H383" t="n">
-        <v>7140000</v>
+        <v>4490000</v>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/voyah/passion</t>
+          <t>https://plusauto.moscow/catalog/voyah/free-sport-edition</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Venucia</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>D60 Plus</t>
+          <t>Passion</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>1985000</v>
+        <v>7140000</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/venucia/d60-plus</t>
+          <t>https://plusauto.moscow/catalog/voyah/passion</t>
         </is>
       </c>
       <c r="H384" t="n">
-        <v>1985000</v>
+        <v>7140000</v>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/venucia/d60-plus</t>
+          <t>https://plusauto.moscow/catalog/voyah/passion</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -14392,63 +14392,63 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>V-Online</t>
+          <t>D60 Plus</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>2560000</v>
+        <v>1985000</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/venucia/v-online</t>
+          <t>https://plusauto.moscow/catalog/venucia/d60-plus</t>
         </is>
       </c>
       <c r="H385" t="n">
-        <v>2560000</v>
+        <v>1985000</v>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/venucia/v-online</t>
+          <t>https://plusauto.moscow/catalog/venucia/d60-plus</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Venucia</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Golf</t>
+          <t>V-Online</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>3411000</v>
+        <v>2560000</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/volkswagen/golf-new</t>
+          <t>https://plusauto.moscow/catalog/venucia/v-online</t>
         </is>
       </c>
       <c r="H386" t="n">
-        <v>3411000</v>
+        <v>2560000</v>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/volkswagen/golf-new</t>
+          <t>https://plusauto.moscow/catalog/venucia/v-online</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -14458,30 +14458,30 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Golf</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>1285000</v>
+        <v>3411000</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="F387" t="n">
-        <v>1285000</v>
-      </c>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/volkswagen/jetta/</t>
+          <t>https://plusauto.moscow/catalog/volkswagen/golf-new</t>
+        </is>
+      </c>
+      <c r="H387" t="n">
+        <v>3411000</v>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>https://plusauto.moscow/catalog/volkswagen/golf-new</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -14491,38 +14491,30 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>1892000</v>
+        <v>1285000</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/volkswagen/passat</t>
+          <t>https://fili-auto.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>2438000</v>
+        <v>1285000</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="H388" t="n">
-        <v>1892000</v>
-      </c>
-      <c r="I388" t="inlineStr">
-        <is>
-          <t>https://plusauto.moscow/catalog/volkswagen/passat</t>
+          <t>https://fili-auto.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -14532,38 +14524,38 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>899000</v>
+        <v>1892000</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/volkswagen/polo/</t>
+          <t>https://plusauto.moscow/catalog/volkswagen/passat</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>899000</v>
+        <v>2438000</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/volkswagen/polo/</t>
+          <t>https://fili-auto.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H389" t="n">
-        <v>1005900</v>
+        <v>1892000</v>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/volkswagen/polo</t>
+          <t>https://plusauto.moscow/catalog/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -14573,30 +14565,38 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>2093900</v>
+        <v>899000</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/volkswagen/taos</t>
+          <t>https://fili-auto.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F390" t="n">
+        <v>899000</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
       <c r="H390" t="n">
-        <v>2093900</v>
+        <v>1005900</v>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/volkswagen/taos</t>
+          <t>https://plusauto.moscow/catalog/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -14606,38 +14606,30 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>5081500</v>
+        <v>2093900</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/volkswagen/teramont</t>
-        </is>
-      </c>
-      <c r="F391" t="n">
-        <v>6990000</v>
-      </c>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>https://fili-auto.ru/cars/volkswagen/teramont/</t>
+          <t>https://plusauto.moscow/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="H391" t="n">
-        <v>5081500</v>
+        <v>2093900</v>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/volkswagen/teramont</t>
+          <t>https://plusauto.moscow/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -14647,38 +14639,38 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>1990000</v>
+        <v>5081500</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/volkswagen/tiguan/</t>
+          <t>https://plusauto.moscow/catalog/volkswagen/teramont</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>1990000</v>
+        <v>6990000</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>https://fili-auto.ru/cars/volkswagen/tiguan/</t>
+          <t>https://fili-auto.ru/cars/volkswagen/teramont/</t>
         </is>
       </c>
       <c r="H392" t="n">
-        <v>2585900</v>
+        <v>5081500</v>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/volkswagen/tiguan</t>
+          <t>https://plusauto.moscow/catalog/volkswagen/teramont</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -14688,63 +14680,71 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Touareg</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>7349500</v>
+        <v>1990000</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/volkswagen/touareg</t>
+          <t>https://fili-auto.ru/cars/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F393" t="n">
+        <v>1990000</v>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>https://fili-auto.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="H393" t="n">
-        <v>7349500</v>
+        <v>2585900</v>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/volkswagen/touareg</t>
+          <t>https://plusauto.moscow/catalog/volkswagen/tiguan</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>659</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Wey</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>Touareg</t>
         </is>
       </c>
       <c r="D394" t="n">
-        <v>5049000</v>
+        <v>7349500</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/wey/05</t>
+          <t>https://plusauto.moscow/catalog/volkswagen/touareg</t>
         </is>
       </c>
       <c r="H394" t="n">
-        <v>5049000</v>
+        <v>7349500</v>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/wey/05</t>
+          <t>https://plusauto.moscow/catalog/volkswagen/touareg</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>868</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -14754,30 +14754,30 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>6119000</v>
+        <v>5049000</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/wey/07</t>
+          <t>https://plusauto.moscow/catalog/wey/05</t>
         </is>
       </c>
       <c r="H395" t="n">
-        <v>6119000</v>
+        <v>5049000</v>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/wey/07</t>
+          <t>https://plusauto.moscow/catalog/wey/05</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>870</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -14787,63 +14787,63 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Coffee 01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>5549000</v>
+        <v>6119000</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/wey/coffee-01</t>
+          <t>https://plusauto.moscow/catalog/wey/07</t>
         </is>
       </c>
       <c r="H396" t="n">
-        <v>5549000</v>
+        <v>6119000</v>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/wey/coffee-01</t>
+          <t>https://plusauto.moscow/catalog/wey/07</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Wey</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Coffee 01</t>
         </is>
       </c>
       <c r="D397" t="n">
-        <v>1949000</v>
+        <v>5549000</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/xcite/x-cross-7</t>
+          <t>https://plusauto.moscow/catalog/wey/coffee-01</t>
         </is>
       </c>
       <c r="H397" t="n">
-        <v>1949000</v>
+        <v>5549000</v>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/xcite/x-cross-7</t>
+          <t>https://plusauto.moscow/catalog/wey/coffee-01</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -14853,63 +14853,63 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>X-Cross 8</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>2605500</v>
+        <v>1949000</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/xcite/x-cross-8</t>
+          <t>https://plusauto.moscow/catalog/xcite/x-cross-7</t>
         </is>
       </c>
       <c r="H398" t="n">
-        <v>2605500</v>
+        <v>1949000</v>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/xcite/x-cross-8</t>
+          <t>https://plusauto.moscow/catalog/xcite/x-cross-7</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Zeekr</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>X-Cross 8</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>5010000</v>
+        <v>2605500</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/zeekr/001</t>
+          <t>https://plusauto.moscow/catalog/xcite/x-cross-8</t>
         </is>
       </c>
       <c r="H399" t="n">
-        <v>5010000</v>
+        <v>2605500</v>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/zeekr/001</t>
+          <t>https://plusauto.moscow/catalog/xcite/x-cross-8</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>991</t>
+          <t>669</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -14919,30 +14919,30 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>3570000</v>
+        <v>5010000</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/zeekr/007</t>
+          <t>https://plusauto.moscow/catalog/zeekr/001</t>
         </is>
       </c>
       <c r="H400" t="n">
-        <v>3570000</v>
+        <v>5010000</v>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/zeekr/007</t>
+          <t>https://plusauto.moscow/catalog/zeekr/001</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>991</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -14952,30 +14952,30 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>007</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>8690000</v>
+        <v>3570000</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/zeekr/009</t>
+          <t>https://plusauto.moscow/catalog/zeekr/007</t>
         </is>
       </c>
       <c r="H401" t="n">
-        <v>8690000</v>
+        <v>3570000</v>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/zeekr/009</t>
+          <t>https://plusauto.moscow/catalog/zeekr/007</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>670</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -14985,87 +14985,120 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>009</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>3480000</v>
+        <v>8690000</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/zeekr/x</t>
+          <t>https://plusauto.moscow/catalog/zeekr/009</t>
         </is>
       </c>
       <c r="H402" t="n">
-        <v>3480000</v>
+        <v>8690000</v>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/zeekr/x</t>
+          <t>https://plusauto.moscow/catalog/zeekr/009</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Zeekr</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D403" t="n">
-        <v>941500</v>
+        <v>3480000</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/zotye/coupa</t>
+          <t>https://plusauto.moscow/catalog/zeekr/x</t>
         </is>
       </c>
       <c r="H403" t="n">
-        <v>941500</v>
+        <v>3480000</v>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://plusauto.moscow/catalog/zotye/coupa</t>
+          <t>https://plusauto.moscow/catalog/zeekr/x</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>941500</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>https://plusauto.moscow/catalog/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="H404" t="n">
+        <v>941500</v>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>https://plusauto.moscow/catalog/zotye/coupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B404" t="inlineStr">
+      <c r="B405" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr">
+      <c r="C405" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D404" t="n">
+      <c r="D405" t="n">
         <v>688000</v>
       </c>
-      <c r="E404" t="inlineStr">
+      <c r="E405" t="inlineStr">
         <is>
           <t>https://plusauto.moscow/catalog/zotye/t600</t>
         </is>
       </c>
-      <c r="H404" t="n">
+      <c r="H405" t="n">
         <v>688000</v>
       </c>
-      <c r="I404" t="inlineStr">
+      <c r="I405" t="inlineStr">
         <is>
           <t>https://plusauto.moscow/catalog/zotye/t600</t>
         </is>
